--- a/benchmark/v2.xlsx
+++ b/benchmark/v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gitop\repos\knn-mpi\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A829877-044D-4541-B75D-DDA6139ABE6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038C181F-D352-4379-A1F9-2230E37413B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{91893F1A-4A58-4381-A830-40CEDF0CC68C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{91893F1A-4A58-4381-A830-40CEDF0CC68C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>corel color histogram</t>
   </si>
@@ -46,6 +46,27 @@
   </si>
   <si>
     <t>v2</t>
+  </si>
+  <si>
+    <t>miniboone pid</t>
+  </si>
+  <si>
+    <t>bbc</t>
+  </si>
+  <si>
+    <t>cnn</t>
+  </si>
+  <si>
+    <t>cnnibn</t>
+  </si>
+  <si>
+    <t>ndtv</t>
+  </si>
+  <si>
+    <t>timesnow</t>
+  </si>
+  <si>
+    <t>features</t>
   </si>
 </sst>
 </file>
@@ -412,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987B9E06-770E-43A4-8F0C-65ED60A8FE70}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -424,9 +445,10 @@
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="21.54296875" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -439,8 +461,29 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -453,8 +496,29 @@
       <c r="D2">
         <v>5237.8599999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>49515.9</v>
+      </c>
+      <c r="F2">
+        <v>332.74400000000003</v>
+      </c>
+      <c r="G2">
+        <v>576.03399999999999</v>
+      </c>
+      <c r="H2">
+        <v>1038.02</v>
+      </c>
+      <c r="I2">
+        <v>809.125</v>
+      </c>
+      <c r="J2">
+        <v>2212.08</v>
+      </c>
+      <c r="K2">
+        <v>484865</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -467,8 +531,29 @@
       <c r="D3">
         <v>3814</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>31458.5</v>
+      </c>
+      <c r="F3">
+        <v>246.28899999999999</v>
+      </c>
+      <c r="G3">
+        <v>376.91500000000002</v>
+      </c>
+      <c r="H3">
+        <v>614.14</v>
+      </c>
+      <c r="I3">
+        <v>491.827</v>
+      </c>
+      <c r="J3">
+        <v>1369.55</v>
+      </c>
+      <c r="K3">
+        <v>310285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -481,8 +566,29 @@
       <c r="D4">
         <v>2658.13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>24016.13</v>
+      </c>
+      <c r="F4">
+        <v>181.38900000000001</v>
+      </c>
+      <c r="G4">
+        <v>265.58300000000003</v>
+      </c>
+      <c r="H4">
+        <v>432.34800000000001</v>
+      </c>
+      <c r="I4">
+        <v>313.38200000000001</v>
+      </c>
+      <c r="J4">
+        <v>903.35799999999995</v>
+      </c>
+      <c r="K4">
+        <v>206237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -495,8 +601,29 @@
       <c r="D5">
         <v>2104.81</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>20169.150000000001</v>
+      </c>
+      <c r="F5">
+        <v>147.33799999999999</v>
+      </c>
+      <c r="G5">
+        <v>213.56700000000001</v>
+      </c>
+      <c r="H5">
+        <v>319.798</v>
+      </c>
+      <c r="I5">
+        <v>243.44499999999999</v>
+      </c>
+      <c r="J5">
+        <v>650.77800000000002</v>
+      </c>
+      <c r="K5">
+        <v>133446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>16</v>
       </c>
@@ -509,8 +636,29 @@
       <c r="D6">
         <v>1519.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>19419.099999999999</v>
+      </c>
+      <c r="F6">
+        <v>101.142</v>
+      </c>
+      <c r="G6">
+        <v>159.161</v>
+      </c>
+      <c r="H6">
+        <v>247.61600000000001</v>
+      </c>
+      <c r="I6">
+        <v>182.167</v>
+      </c>
+      <c r="J6">
+        <v>480.22399999999999</v>
+      </c>
+      <c r="K6">
+        <v>91637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>32</v>
       </c>
@@ -523,8 +671,11 @@
       <c r="D7">
         <v>1314.07</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>13105.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>48</v>
       </c>
@@ -537,8 +688,11 @@
       <c r="D8">
         <v>1252.3499999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>11941.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>60</v>
       </c>
@@ -550,6 +704,9 @@
       </c>
       <c r="D9">
         <v>1228.3599999999999</v>
+      </c>
+      <c r="E9">
+        <v>9151.75</v>
       </c>
     </row>
   </sheetData>
